--- a/Main.xlsx
+++ b/Main.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Darshan\Darshan\CPR\Final Project V1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a2f83e5829ab758/Desktop/Seneca-CPR-Final-Project-Team-7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D75F9F72-08B9-4DA6-A3C8-65FAB8FA9304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{D75F9F72-08B9-4DA6-A3C8-65FAB8FA9304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28C48CF4-83C0-4881-BD43-DEE7BA481BA6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B989C294-519D-471A-9A3B-FE62CB2ECD11}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
   <si>
     <t>Version 1</t>
   </si>
@@ -269,12 +269,117 @@
   <si>
     <t xml:space="preserve">What it does right now is it just ignores the whole string after the first space so there should be a condition to read the string even after a space. </t>
   </si>
+  <si>
+    <t>Version 2</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Expected results</t>
+  </si>
+  <si>
+    <t>fundamentals()-                strlen()</t>
+  </si>
+  <si>
+    <t>+ Returns the size of string properly, no matter what type is the input</t>
+  </si>
+  <si>
+    <t>Andrei Sajeniouk is the the best!!!</t>
+  </si>
+  <si>
+    <t>The function should successfully return the length of string even if it includes spaces.</t>
+  </si>
+  <si>
+    <t>- Accepts input as a string even when larger than 79</t>
+  </si>
+  <si>
+    <t>Open the application and input any string with characters exceeding 79 size.</t>
+  </si>
+  <si>
+    <t>The function should not accept the input larger than the holding capacity of the array buffer2</t>
+  </si>
+  <si>
+    <t>It accepts the string, no matter the size. Thus, it results in overflow of buffer2 and cause a runtime error everytime we run the program.</t>
+  </si>
+  <si>
+    <t>Recommended fix: There must be a conditional statement included in the code which should not allow the input to exceed 79 characters. Which will prevent the overflow of the array.</t>
+  </si>
+  <si>
+    <t>manipulating()-       strcmp()</t>
+  </si>
+  <si>
+    <t>+ Receiving values in alphabets  in 1st string and 2nd string</t>
+  </si>
+  <si>
+    <t>"a" as first string "b" as second string</t>
+  </si>
+  <si>
+    <t>In this strcmp() function will compare 1st string and 2nd string and output will be string1 is less than string2</t>
+  </si>
+  <si>
+    <t>The function is working as expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is accepting more than 79 characters and strcmp() function is combining.  </t>
+  </si>
+  <si>
+    <t>+enter the phrases that are seperated by dot instead of commas</t>
+  </si>
+  <si>
+    <t>open the application and enter a phrase seperated by commas</t>
+  </si>
+  <si>
+    <t>the phrases seperated by commas will be tokenized</t>
+  </si>
+  <si>
+    <t>-enter the phrases that are seperated by dot instead of commas</t>
+  </si>
+  <si>
+    <t>open the application and enter a phrase seperated by dot</t>
+  </si>
+  <si>
+    <t>the phrases seperated by dot will not be tokenized</t>
+  </si>
+  <si>
+    <t>It must have been seperated according to the expecations of the user</t>
+  </si>
+  <si>
+    <t>It is the limitation of the the strtok()</t>
+  </si>
+  <si>
+    <t>converting()-        atof()</t>
+  </si>
+  <si>
+    <t>Since this function has to convert a string into a double type value. Lets enter '562hello'</t>
+  </si>
+  <si>
+    <t>Since it is a function to convert string to double integer type;        It should return a double value</t>
+  </si>
+  <si>
+    <t>Output is 562.000000</t>
+  </si>
+  <si>
+    <t>-This function is basically used to convert string argument into an integer.it takes a string as an input and returns an integer.</t>
+  </si>
+  <si>
+    <t>lets enter  " @CPR101 Final Project" to check if it tests space and special characters.</t>
+  </si>
+  <si>
+    <t>Since it is a function to convert string to double integer type;        It should return a double value but except 0.000000</t>
+  </si>
+  <si>
+    <t>UNEXPECTEDLY, it returns 0.000000 and thus it ignores any space or special character.</t>
+  </si>
+  <si>
+    <t>This function should be expanded to include special characters and consider elements after space also, otherwise we cannot differentiate between them and that's not good.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +440,23 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -588,17 +710,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -683,9 +805,102 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="3" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{855A1643-01D1-4C72-833B-6567868BDFFE}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{B5856D49-8C80-47F7-BAEC-D8E460670EDD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -997,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B3B0CF-9654-4772-8434-40216212CBAD}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="A13" sqref="A13:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1013,240 +1228,462 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="65.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" ht="275" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="19"/>
-    </row>
-    <row r="4" spans="1:8" ht="275" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:8" ht="100" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" ht="250" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" spans="1:8" ht="187.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:8" ht="162.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" ht="50" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="1:8" ht="262.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" ht="87.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:8" ht="200" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="29"/>
-    </row>
-    <row r="10" spans="1:8" ht="237.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="29"/>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="50" x14ac:dyDescent="0.35">
+      <c r="A15" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="100" x14ac:dyDescent="0.35">
+      <c r="A16" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="50" x14ac:dyDescent="0.35">
+      <c r="A17" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="87.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.35">
+      <c r="A21" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="87.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1254,6 +1691,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010091DA70FED0CF0C47ABEB2750A1D92CC4" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6979442916101ba318def1708def148">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31d5eec3c12ee2e8127422d567928fa7">
     <xsd:element name="properties">
@@ -1367,15 +1813,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1383,13 +1820,34 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BED704C1-4F69-4C92-BCB0-7F14423C0BF8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{912F88B4-4B1A-4C19-A021-9A59A3F45298}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{912F88B4-4B1A-4C19-A021-9A59A3F45298}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BED704C1-4F69-4C92-BCB0-7F14423C0BF8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF1B519-C22E-4E58-9F42-9EF33435E7A2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF1B519-C22E-4E58-9F42-9EF33435E7A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Main.xlsx
+++ b/Main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a2f83e5829ab758/Desktop/Seneca-CPR-Final-Project-Team-7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{D75F9F72-08B9-4DA6-A3C8-65FAB8FA9304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28C48CF4-83C0-4881-BD43-DEE7BA481BA6}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{D75F9F72-08B9-4DA6-A3C8-65FAB8FA9304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BF500B1-3D17-4B1A-B2B7-2743779E4228}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B989C294-519D-471A-9A3B-FE62CB2ECD11}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="11460" windowHeight="14410" xr2:uid="{B989C294-519D-471A-9A3B-FE62CB2ECD11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,12 +84,55 @@
         </r>
       </text>
     </comment>
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{152839AE-2291-44B6-9813-1C41D318F5DB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a positive test expecting a successful result.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>−</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> means a negative test to generate a validation message or explore unexpected, undefined behaviours.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="120">
   <si>
     <t>Version 1</t>
   </si>
@@ -373,6 +416,106 @@
   </si>
   <si>
     <t>This function should be expanded to include special characters and consider elements after space also, otherwise we cannot differentiate between them and that's not good.</t>
+  </si>
+  <si>
+    <t>Version 3</t>
+  </si>
+  <si>
+    <t>fundamentals()-                strcpy()</t>
+  </si>
+  <si>
+    <t>+ Copies the string input in destination if it there is a newline</t>
+  </si>
+  <si>
+    <t>Open the application and enter a newline character in the input of source string Input:\n</t>
+  </si>
+  <si>
+    <t>It should give nothing as oputput and should not give any error.</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>- Allows input of more than 79 characters</t>
+  </si>
+  <si>
+    <t>Open the application and enter a set of 79+ characters in the source string's input</t>
+  </si>
+  <si>
+    <t>It should not allow the input and prompt again for it</t>
+  </si>
+  <si>
+    <t>It accepts it and cannot copy it in destination due to size constraints and the program stops abruptly</t>
+  </si>
+  <si>
+    <t>(Reason of failure): The reason this test fails is because of the size of source and destination array. It is always advised to keep in mind the sizes of array while defining them (that the size of destination array should not be less than that of the source). We as programmers are suppose to take care of it, and this is what is missing in the program.
+(Recommended fix): We should define a condition where, if the size of source string is larger than 79, it should again ask the user for the input and should not move further unless &lt;79 characters are entered.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manipulating()-             strstr()  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Receiving string values in bigstring and substring  </t>
+  </si>
+  <si>
+    <t>open the application and enter anmolkataria in the bigstring input, and anmol in 2nd input. Input: anmolkataria and then input: anmol</t>
+  </si>
+  <si>
+    <t>In this strstr() function will search substring in bigstring and output will be 0 as 'a' is indexed at 0</t>
+  </si>
+  <si>
+    <t>- Accepting substring or bigstring more than 79 characters in length</t>
+  </si>
+  <si>
+    <t>open the application and enter  more than 79 characters in bigstring or substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is accepting more than 79 characters and strcstr() function is searching also.  </t>
+  </si>
+  <si>
+    <t>Recommended fix: There should be a condition which will check length of bigstring and reprompt if length exceeds 79 characters and same goes with substring.</t>
+  </si>
+  <si>
+    <t>Enter a string which contains two dots in between two or more words</t>
+  </si>
+  <si>
+    <t>The words got tokenized as there are dot delimiter in between the words</t>
+  </si>
+  <si>
+    <t>The is the way it should have worked and it passed</t>
+  </si>
+  <si>
+    <t>The string must have returned atleast a token which is empty</t>
+  </si>
+  <si>
+    <t>The program did not returned the expected output</t>
+  </si>
+  <si>
+    <t>converting()-                                  atol</t>
+  </si>
+  <si>
+    <t>+This function basically  converts string argument into a long integer.it takes string as an input and returns a long integer.</t>
+  </si>
+  <si>
+    <t>a random string "345278 is the postal code" is entered</t>
+  </si>
+  <si>
+    <t>It should return a  long Integer value.</t>
+  </si>
+  <si>
+    <t>Returns 345278</t>
+  </si>
+  <si>
+    <t>-This function basically  converts string argument into a long integer.it takes string as an input and returns a long integer.</t>
+  </si>
+  <si>
+    <t>a random mixed character string with spaces " IOS1432.23#2@67&amp;5%" is entered to check range</t>
+  </si>
+  <si>
+    <t>Although it returns a long integer value (0) but it couldn'nt differentiate between special characters and normal which is not good</t>
+  </si>
+  <si>
+    <t>The best fix for this bug is to create an additional code just to check for for special case characters and give a unique output because that is the only way we can best use this function for something productive.</t>
   </si>
 </sst>
 </file>
@@ -484,7 +627,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -709,6 +852,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -719,7 +871,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -805,6 +957,84 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="3" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -817,83 +1047,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="3" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -913,6 +1083,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1212,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B3B0CF-9654-4772-8434-40216212CBAD}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:G22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1228,13 +1402,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1461,229 +1635,452 @@
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="13" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33" t="s">
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="50" x14ac:dyDescent="0.35">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="43" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="100" x14ac:dyDescent="0.35">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="47" t="s">
+      <c r="G16" s="43" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="50" x14ac:dyDescent="0.35">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="46" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="43" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="46" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="50" t="s">
+      <c r="G20" s="46" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.35">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="54" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="53" t="s">
+    <row r="22" spans="1:7" ht="88" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="58" t="s">
+      <c r="G22" s="54" t="s">
         <v>86</v>
       </c>
     </row>
+    <row r="23" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="275" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="87.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.35">
+      <c r="A31" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="64" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1691,12 +2088,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1814,15 +2208,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{912F88B4-4B1A-4C19-A021-9A59A3F45298}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF1B519-C22E-4E58-9F42-9EF33435E7A2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1844,10 +2242,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF1B519-C22E-4E58-9F42-9EF33435E7A2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{912F88B4-4B1A-4C19-A021-9A59A3F45298}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>